--- a/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>Mikołaj Woźniak</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>Kacper Kowalski</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>1,30</t>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>14,60</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>2,00</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,40</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>17,50</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>4,80</t>
   </si>
   <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,80</t>
+    <t>3,10</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>3,11</t>
+    <t>18,98</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>17,94</t>
+    <t>20,51</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>1,16</t>
+    <t>7,96</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>2,53</t>
+    <t>2,45</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>5,38</t>
+    <t>19,60</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,16 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>29,71</t>
-  </si>
-  <si>
-    <t>21,22</t>
-  </si>
-  <si>
-    <t>2,27</t>
-  </si>
-  <si>
-    <t>6,89</t>
-  </si>
-  <si>
-    <t>1,90</t>
+    <t>17,13</t>
+  </si>
+  <si>
+    <t>7,08</t>
+  </si>
+  <si>
+    <t>7,61</t>
+  </si>
+  <si>
+    <t>28,69</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>24,75</t>
-  </si>
-  <si>
-    <t>14,97</t>
-  </si>
-  <si>
-    <t>14,62</t>
-  </si>
-  <si>
-    <t>28,56</t>
-  </si>
-  <si>
-    <t>25,53</t>
+    <t>8,60</t>
+  </si>
+  <si>
+    <t>27,62</t>
+  </si>
+  <si>
+    <t>3,17</t>
+  </si>
+  <si>
+    <t>14,76</t>
+  </si>
+  <si>
+    <t>26,90</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,43 +337,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
     <t>Wojciech</t>
   </si>
   <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
     <t>Nowak</t>
   </si>
   <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Lis</t>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
   </si>
   <si>
     <t>Aleksander</t>
   </si>
   <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -412,160 +412,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Hanna Olszewska</t>
-  </si>
-  <si>
-    <t>28.09.1999</t>
-  </si>
-  <si>
-    <t>6 470,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Urbaniak</t>
-  </si>
-  <si>
-    <t>27.12.1976</t>
-  </si>
-  <si>
-    <t>8 933,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>08.06.2001</t>
-  </si>
-  <si>
-    <t>2 558,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Wójcik</t>
-  </si>
-  <si>
-    <t>12.12.2000</t>
-  </si>
-  <si>
-    <t>3 487,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
-  </si>
-  <si>
-    <t>03.09.1980</t>
-  </si>
-  <si>
-    <t>11 805,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Malinowska</t>
-  </si>
-  <si>
-    <t>17.06.2002</t>
-  </si>
-  <si>
-    <t>6 671,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Borkowska</t>
-  </si>
-  <si>
-    <t>15.10.2001</t>
-  </si>
-  <si>
-    <t>7 675,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>05.07.2005</t>
-  </si>
-  <si>
-    <t>10 529,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>09.01.1994</t>
-  </si>
-  <si>
-    <t>3 037,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>27.05.1999</t>
-  </si>
-  <si>
-    <t>5 775,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>01.10.1998</t>
-  </si>
-  <si>
-    <t>4 018,00 zł</t>
-  </si>
-  <si>
-    <t>22.06.1976</t>
-  </si>
-  <si>
-    <t>3 676,00 zł</t>
-  </si>
-  <si>
-    <t>15.09.1997</t>
-  </si>
-  <si>
-    <t>14 731,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>21.09.1999</t>
-  </si>
-  <si>
-    <t>3 088,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kowalski</t>
-  </si>
-  <si>
-    <t>08.04.1988</t>
-  </si>
-  <si>
-    <t>9 697,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>14.08.1990</t>
-  </si>
-  <si>
-    <t>11 861,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>15.02.1988</t>
-  </si>
-  <si>
-    <t>9 113,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kozłowski</t>
-  </si>
-  <si>
-    <t>07.10.1987</t>
-  </si>
-  <si>
-    <t>8 201,00 zł</t>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>19.11.1984</t>
+  </si>
+  <si>
+    <t>7 796,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>09.04.1980</t>
+  </si>
+  <si>
+    <t>6 739,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>25.08.1998</t>
+  </si>
+  <si>
+    <t>5 984,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>11.03.1984</t>
+  </si>
+  <si>
+    <t>6 693,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Lis</t>
+  </si>
+  <si>
+    <t>18.09.1996</t>
+  </si>
+  <si>
+    <t>12 508,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
+  </si>
+  <si>
+    <t>24.11.1976</t>
+  </si>
+  <si>
+    <t>14 725,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>18.02.2000</t>
+  </si>
+  <si>
+    <t>11 081,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>09.01.1992</t>
+  </si>
+  <si>
+    <t>10 668,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>09.10.1992</t>
+  </si>
+  <si>
+    <t>5 757,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>28.07.1978</t>
+  </si>
+  <si>
+    <t>3 317,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Urbaniak</t>
+  </si>
+  <si>
+    <t>13.02.1991</t>
+  </si>
+  <si>
+    <t>5 760,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>10.02.1986</t>
+  </si>
+  <si>
+    <t>9 691,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>17.06.2001</t>
+  </si>
+  <si>
+    <t>10 587,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Lis</t>
+  </si>
+  <si>
+    <t>24.05.1976</t>
+  </si>
+  <si>
+    <t>14 981,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -637,310 +607,319 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>801,00 zł</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>966,00 zł</t>
+  </si>
+  <si>
+    <t>1 198,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>978,00 zł</t>
+  </si>
+  <si>
+    <t>1 369,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>889,00 zł</t>
+  </si>
+  <si>
+    <t>1 005,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>1 536,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 491,00 zł</t>
+  </si>
+  <si>
+    <t>1 744,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>611,00 zł</t>
+  </si>
+  <si>
+    <t>678,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>517,00 zł</t>
+  </si>
+  <si>
+    <t>646,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>601,00 zł</t>
+  </si>
+  <si>
+    <t>793,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 481,00 zł</t>
+  </si>
+  <si>
+    <t>1 733,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>864,00 zł</t>
+  </si>
+  <si>
+    <t>1 020,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 354,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 120,00 zł</t>
+  </si>
+  <si>
+    <t>1 490,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>515,00 zł</t>
+  </si>
+  <si>
+    <t>572,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 183,00 zł</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 842,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 405,00 zł</t>
+  </si>
+  <si>
+    <t>1 911,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 018,00 zł</t>
+  </si>
+  <si>
+    <t>1 323,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>901,00 zł</t>
+  </si>
+  <si>
+    <t>1 153,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>805,00 zł</t>
+  </si>
+  <si>
+    <t>1 071,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 768,00 zł</t>
+    <t>1 357,00 zł</t>
+  </si>
+  <si>
+    <t>1 710,00 zł</t>
+  </si>
+  <si>
+    <t>1 182,00 zł</t>
+  </si>
+  <si>
+    <t>1 395,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 247,00 zł</t>
+  </si>
+  <si>
+    <t>1 459,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 251,00 zł</t>
+  </si>
+  <si>
+    <t>1 489,00 zł</t>
+  </si>
+  <si>
+    <t>817,00 zł</t>
+  </si>
+  <si>
+    <t>921,00 zł</t>
+  </si>
+  <si>
+    <t>1 096,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
+    <t>543,00 zł</t>
+  </si>
+  <si>
+    <t>652,00 zł</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 512,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
-    <t>1 557,00 zł</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>502,00 zł</t>
-  </si>
-  <si>
-    <t>552,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>1 497,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>769,00 zł</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 249,00 zł</t>
-  </si>
-  <si>
-    <t>1 511,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 135,00 zł</t>
-  </si>
-  <si>
-    <t>1 339,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
+    <t>1 427,00 zł</t>
+  </si>
+  <si>
+    <t>1 955,00 zł</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>558,00 zł</t>
-  </si>
-  <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 933,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 203,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 649,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 133,00 zł</t>
-  </si>
-  <si>
-    <t>1 518,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>1 829,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>518,00 zł</t>
-  </si>
-  <si>
-    <t>601,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 134,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>1 064,00 zł</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
-    <t>1 335,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 682,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 901,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>749,00 zł</t>
-  </si>
-  <si>
-    <t>989,00 zł</t>
-  </si>
-  <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>1 624,00 zł</t>
-  </si>
-  <si>
-    <t>1 814,00 zł</t>
+    <t>774,00 zł</t>
+  </si>
+  <si>
+    <t>1 014,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1497,19 +1476,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1518,19 +1497,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1539,16 +1518,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1563,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1581,16 +1560,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -1602,19 +1581,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1626,13 +1605,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1647,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1665,7 +1644,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1674,10 +1653,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1686,19 +1665,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1707,19 +1686,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
-        <v>4</v>
-      </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1728,19 +1707,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1862,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1877,7 +1856,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1892,7 +1871,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1907,7 +1886,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1937,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2066,7 +2045,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2078,7 +2057,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2090,7 +2069,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2102,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2150,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2162,7 +2141,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2171,10 +2150,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2183,10 +2162,10 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2195,10 +2174,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2206,7 +2185,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2218,7 +2197,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2243,10 +2222,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2255,10 +2234,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2267,10 +2246,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2279,10 +2258,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2291,22 +2270,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2328,10 +2307,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2352,53 +2331,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2410,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2419,43 +2398,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2463,31 +2442,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2495,19 +2474,19 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -2516,10 +2495,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2527,28 +2506,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>3</v>
@@ -2559,31 +2538,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2591,28 +2570,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2623,54 +2602,70 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2684,11 +2679,27 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,10 +2712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2883,108 +2894,64 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B29" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3002,10 +2969,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3031,75 +2998,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3107,22 +3074,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3130,22 +3097,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3153,22 +3120,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3176,22 +3143,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3199,22 +3166,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3225,19 +3192,19 @@
         <v>217</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3245,22 +3212,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3268,22 +3235,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3291,22 +3258,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3314,22 +3281,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3337,19 +3304,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>216</v>
@@ -3360,22 +3327,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3383,22 +3350,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3406,22 +3373,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3429,22 +3396,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3452,19 +3419,19 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>222</v>
@@ -3475,22 +3442,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3498,22 +3465,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3521,22 +3488,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3544,22 +3511,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3567,22 +3534,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3590,22 +3557,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3613,22 +3580,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3636,22 +3603,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3659,22 +3626,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3682,22 +3649,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3705,22 +3672,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3728,90 +3695,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>182</v>
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>311</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,60</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,80</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,10</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,72 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>18,98</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>20,51</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>7,96</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>2,45</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>19,60</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>17,13</t>
-  </si>
-  <si>
-    <t>7,08</t>
-  </si>
-  <si>
-    <t>7,61</t>
-  </si>
-  <si>
-    <t>28,69</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>8,60</t>
-  </si>
-  <si>
-    <t>27,62</t>
-  </si>
-  <si>
-    <t>3,17</t>
-  </si>
-  <si>
-    <t>14,76</t>
-  </si>
-  <si>
-    <t>26,90</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,126 +343,84 @@
     <t>19.11.1984</t>
   </si>
   <si>
-    <t>7 796,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Kaźmierczak</t>
   </si>
   <si>
     <t>09.04.1980</t>
   </si>
   <si>
-    <t>6 739,00 zł</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>25.08.1998</t>
   </si>
   <si>
-    <t>5 984,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Piotrowski</t>
   </si>
   <si>
     <t>11.03.1984</t>
   </si>
   <si>
-    <t>6 693,00 zł</t>
-  </si>
-  <si>
     <t>Anna Lis</t>
   </si>
   <si>
     <t>18.09.1996</t>
   </si>
   <si>
-    <t>12 508,00 zł</t>
-  </si>
-  <si>
     <t>Lena Borkowska</t>
   </si>
   <si>
     <t>24.11.1976</t>
   </si>
   <si>
-    <t>14 725,00 zł</t>
-  </si>
-  <si>
     <t>Maja Rogalska</t>
   </si>
   <si>
     <t>18.02.2000</t>
   </si>
   <si>
-    <t>11 081,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kamiński</t>
   </si>
   <si>
     <t>09.01.1992</t>
   </si>
   <si>
-    <t>10 668,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Sadowska</t>
   </si>
   <si>
     <t>09.10.1992</t>
   </si>
   <si>
-    <t>5 757,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Sikorska</t>
   </si>
   <si>
     <t>28.07.1978</t>
   </si>
   <si>
-    <t>3 317,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Urbaniak</t>
   </si>
   <si>
     <t>13.02.1991</t>
   </si>
   <si>
-    <t>5 760,00 zł</t>
-  </si>
-  <si>
     <t>Lena Wilk</t>
   </si>
   <si>
     <t>10.02.1986</t>
   </si>
   <si>
-    <t>9 691,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Jaworska</t>
   </si>
   <si>
     <t>17.06.2001</t>
   </si>
   <si>
-    <t>10 587,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Lis</t>
   </si>
   <si>
     <t>24.05.1976</t>
   </si>
   <si>
-    <t>14 981,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -550,9 +433,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -613,12 +493,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>966,00 zł</t>
-  </si>
-  <si>
-    <t>1 198,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -631,12 +505,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>978,00 zł</t>
-  </si>
-  <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
@@ -646,12 +514,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -661,12 +523,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 536,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -679,12 +535,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 491,00 zł</t>
-  </si>
-  <si>
-    <t>1 744,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -694,12 +544,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>611,00 zł</t>
-  </si>
-  <si>
-    <t>678,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -709,24 +553,12 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>517,00 zł</t>
-  </si>
-  <si>
-    <t>646,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>601,00 zł</t>
-  </si>
-  <si>
-    <t>793,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
@@ -736,54 +568,27 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 481,00 zł</t>
-  </si>
-  <si>
-    <t>1 733,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>864,00 zł</t>
-  </si>
-  <si>
-    <t>1 020,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>515,00 zł</t>
-  </si>
-  <si>
-    <t>572,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -793,133 +598,46 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 842,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 405,00 zł</t>
-  </si>
-  <si>
-    <t>1 911,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 018,00 zł</t>
-  </si>
-  <si>
-    <t>1 323,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>901,00 zł</t>
-  </si>
-  <si>
-    <t>1 153,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>805,00 zł</t>
-  </si>
-  <si>
-    <t>1 071,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
-    <t>1 710,00 zł</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 247,00 zł</t>
-  </si>
-  <si>
-    <t>1 459,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>817,00 zł</t>
-  </si>
-  <si>
-    <t>921,00 zł</t>
-  </si>
-  <si>
-    <t>1 096,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>543,00 zł</t>
-  </si>
-  <si>
-    <t>652,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 955,00 zł</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>774,00 zł</t>
-  </si>
-  <si>
-    <t>1 014,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -941,7 +659,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -998,14 +718,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1016,8 +736,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1048,30 +768,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,7 +1095,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,25 +1170,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1490,7 +1211,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1511,7 +1232,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1532,7 +1253,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1553,7 +1274,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1574,7 +1295,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1595,7 +1316,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1616,7 +1337,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1637,7 +1358,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1658,7 +1379,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1679,7 +1400,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1700,7 +1421,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1721,27 +1442,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1775,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1795,7 +1506,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1805,29 +1516,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1835,99 +1546,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14.6</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.4</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.8</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.8</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.1</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1960,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1985,113 +1696,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>18.98</v>
       </c>
       <c r="C15" s="3">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20.51</v>
       </c>
       <c r="C16" s="3">
         <v>35</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7.96</v>
       </c>
       <c r="C17" s="3">
         <v>30</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.45</v>
       </c>
       <c r="C18" s="3">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>19.6</v>
       </c>
       <c r="C19" s="3">
         <v>38</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2100,94 +1811,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>17.13</v>
       </c>
       <c r="C24" s="3">
         <v>27</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7.08</v>
       </c>
       <c r="C25" s="3">
         <v>35</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.61</v>
       </c>
       <c r="C27" s="3">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>28.69</v>
       </c>
       <c r="C28" s="3">
         <v>36</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2196,98 +1907,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.6</v>
       </c>
       <c r="C33" s="3">
         <v>35</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>27.62</v>
       </c>
       <c r="C34" s="3">
         <v>18</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.17</v>
       </c>
       <c r="C35" s="3">
         <v>14</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>14.76</v>
       </c>
       <c r="C36" s="3">
         <v>38</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>26.9</v>
       </c>
       <c r="C37" s="3">
         <v>8</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2310,7 +2021,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2330,90 +2041,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2436,16 +2147,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2468,16 +2179,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2500,16 +2211,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2532,16 +2243,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2564,16 +2275,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2596,16 +2307,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2628,16 +2339,16 @@
       <c r="J18" s="3">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -2660,40 +2371,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2726,233 +2437,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7796</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6739</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5984</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6693</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12508</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14725</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11081</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10668</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5757</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3317</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5760</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9691</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10587</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14981</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>172</v>
+      <c r="A27" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2987,86 +2692,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>177</v>
+      <c r="A1" s="15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>194</v>
+      <c r="A15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3074,22 +2779,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
+      </c>
+      <c r="D16" s="7">
+        <v>966</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1198</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3097,22 +2802,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
+      </c>
+      <c r="D17" s="7">
+        <v>978</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1369</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3120,22 +2825,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>889</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1005</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3143,22 +2848,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1536</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3166,22 +2871,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1491</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1744</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3189,22 +2894,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="7">
+        <v>611</v>
+      </c>
+      <c r="E21" s="7">
+        <v>678</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3212,22 +2917,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="7">
+        <v>517</v>
+      </c>
+      <c r="E22" s="7">
+        <v>646</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3235,22 +2940,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
+      </c>
+      <c r="D23" s="7">
+        <v>601</v>
+      </c>
+      <c r="E23" s="7">
+        <v>793</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3258,22 +2963,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1481</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1733</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3281,22 +2986,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>170</v>
+      </c>
+      <c r="D25" s="7">
+        <v>864</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1020</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3304,22 +3009,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1354</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1733</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3327,22 +3032,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>249</v>
+        <v>173</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1120</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1490</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3350,22 +3055,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="7">
+        <v>515</v>
+      </c>
+      <c r="E28" s="7">
+        <v>572</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3373,22 +3078,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1183</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1349</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3396,22 +3101,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>181</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1842</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3419,22 +3124,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1405</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1911</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3442,22 +3147,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>269</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1018</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1323</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3465,22 +3170,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>173</v>
+      </c>
+      <c r="D33" s="7">
+        <v>901</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1153</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3488,22 +3193,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>275</v>
+        <v>160</v>
+      </c>
+      <c r="D34" s="7">
+        <v>805</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1071</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3511,22 +3216,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1357</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1710</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3534,22 +3239,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>173</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1182</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1395</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3557,22 +3262,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>284</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1247</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1459</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3580,22 +3285,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>287</v>
+        <v>202</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1251</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1489</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3603,22 +3308,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="D39" s="7">
+        <v>817</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1005</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3626,22 +3331,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="7">
+        <v>921</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1096</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3649,22 +3354,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>293</v>
+        <v>166</v>
+      </c>
+      <c r="D41" s="7">
+        <v>543</v>
+      </c>
+      <c r="E41" s="7">
+        <v>652</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3672,22 +3377,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>296</v>
+        <v>204</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1955</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3695,68 +3400,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>299</v>
+        <v>205</v>
+      </c>
+      <c r="D43" s="7">
+        <v>774</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1014</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>172</v>
+      <c r="A46" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_017.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 1</t>
   </si>
@@ -61,379 +62,400 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>Aleksander Nowak</t>
-  </si>
-  <si>
-    <t>Anna Piekarska</t>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Jan Wojciechowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>Jan Piotrowski</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>Adam Dąbrowski</t>
+  </si>
+  <si>
+    <t>Aleksander Lewandowski</t>
+  </si>
+  <si>
+    <t>Anna Lis</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 17 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Wojciech Woźniak</t>
-  </si>
-  <si>
-    <t>19.11.1984</t>
-  </si>
-  <si>
-    <t>Zuzanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>09.04.1980</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>25.08.1998</t>
-  </si>
-  <si>
-    <t>Wojciech Piotrowski</t>
-  </si>
-  <si>
-    <t>11.03.1984</t>
-  </si>
-  <si>
-    <t>Anna Lis</t>
-  </si>
-  <si>
-    <t>18.09.1996</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>24.11.1976</t>
-  </si>
-  <si>
-    <t>Maja Rogalska</t>
-  </si>
-  <si>
-    <t>18.02.2000</t>
-  </si>
-  <si>
-    <t>Adam Kamiński</t>
-  </si>
-  <si>
-    <t>09.01.1992</t>
-  </si>
-  <si>
-    <t>Amelia Sadowska</t>
-  </si>
-  <si>
-    <t>09.10.1992</t>
-  </si>
-  <si>
-    <t>Zuzanna Sikorska</t>
-  </si>
-  <si>
-    <t>28.07.1978</t>
-  </si>
-  <si>
-    <t>Oliwia Urbaniak</t>
-  </si>
-  <si>
-    <t>13.02.1991</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>10.02.1986</t>
-  </si>
-  <si>
-    <t>Amelia Jaworska</t>
-  </si>
-  <si>
-    <t>17.06.2001</t>
-  </si>
-  <si>
-    <t>Natalia Lis</t>
-  </si>
-  <si>
-    <t>24.05.1976</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Amelia Sikorska</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
+  </si>
+  <si>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -487,157 +509,157 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
+    <t>Smart TV 55"</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
     <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -709,7 +731,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +754,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -768,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -779,13 +795,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1092,7 +1107,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,13 +1218,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1218,19 +1233,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1242,16 +1257,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1260,16 +1275,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1281,19 +1296,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1302,19 +1317,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1323,19 +1338,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1344,19 +1359,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1365,19 +1380,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1386,10 +1401,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -1398,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1407,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -1416,10 +1431,10 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1437,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1453,6 +1468,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1486,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1506,7 +1527,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1516,29 +1537,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1546,99 +1567,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14.6</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.3</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.4</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>17.5</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.5</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.7</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.1</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3.1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.5</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1655,10 +1676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1696,27 +1717,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1724,85 +1745,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>18.98</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18.030000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20.51</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>24.89</v>
       </c>
       <c r="C16" s="3">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>7.96</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13.73</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2.45</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.77</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>19.6</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12.66</v>
       </c>
       <c r="C19" s="3">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1811,8 +1832,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1820,85 +1841,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>17.13</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>26.010000000000002</v>
       </c>
       <c r="C24" s="3">
-        <v>27</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>7.08</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>24.98</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>27.8</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>7.61</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>15.93</v>
       </c>
       <c r="C27" s="3">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>28.69</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27.87</v>
       </c>
       <c r="C28" s="3">
-        <v>36</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1907,8 +1928,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1916,89 +1937,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>8.6</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>23.24</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>27.62</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12.82</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>3.17</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>18.67</v>
       </c>
       <c r="C35" s="3">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>14.76</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.55</v>
       </c>
       <c r="C36" s="3">
-        <v>38</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>26.9</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>13.050000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>8</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2041,111 +2070,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2153,31 +2182,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2185,22 +2214,22 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>5</v>
@@ -2209,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2217,31 +2246,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2249,31 +2278,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2281,31 +2310,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2313,28 +2342,28 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
       </c>
       <c r="J18" s="3">
         <v>4</v>
@@ -2345,38 +2374,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3">
         <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2392,7 +2421,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2423,10 +2452,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2437,227 +2466,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7796</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13364</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6739</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7858</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="7">
-        <v>5984</v>
+      <c r="B13" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3004</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6693</v>
+      <c r="B14" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7083</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>12508</v>
+        <v>112</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12941</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14725</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4628</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11081</v>
+        <v>114</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6064</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10668</v>
+        <v>115</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4029</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5757</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13557</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3317</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7035</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5760</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3454</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>9691</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3905</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10587</v>
+        <v>120</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14875</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C24" s="8">
+        <v>14425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C25" s="8">
+        <v>13778</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="2"/>
+      <c r="A28" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2674,10 +2714,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3">
+        <v>143</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3">
+        <v>151</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="3">
+        <v>114</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3">
+        <v>163</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3">
+        <v>161</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="3">
+        <v>154</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3">
+        <v>146</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3">
+        <v>193</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="3">
+        <v>164</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="3">
+        <v>190</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2692,86 +2907,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>137</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2779,22 +2994,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="7">
-        <v>966</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1198</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1408</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1676</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2802,22 +3017,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="7">
-        <v>978</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1369</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1027</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1294</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2825,22 +3040,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>889</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1005</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1238</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1572</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2848,22 +3063,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1371</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1536</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>553</v>
+      </c>
+      <c r="E19" s="8">
+        <v>774</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2871,22 +3086,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1491</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1744</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="8">
+        <v>691</v>
+      </c>
+      <c r="E20" s="8">
+        <v>760</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2894,22 +3109,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="7">
-        <v>611</v>
-      </c>
-      <c r="E21" s="7">
-        <v>678</v>
+        <v>182</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1075</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1279</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2917,22 +3132,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="7">
-        <v>517</v>
-      </c>
-      <c r="E22" s="7">
-        <v>646</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="8">
+        <v>607</v>
+      </c>
+      <c r="E22" s="8">
+        <v>777</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2940,22 +3155,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="7">
-        <v>601</v>
-      </c>
-      <c r="E23" s="7">
-        <v>793</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>896</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1210</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2963,22 +3178,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1481</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1733</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1255</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1707</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2986,22 +3201,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="7">
-        <v>864</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1020</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1331</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1584</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3012,19 +3227,19 @@
         <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1354</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1733</v>
+        <v>193</v>
+      </c>
+      <c r="D26" s="8">
+        <v>555</v>
+      </c>
+      <c r="E26" s="8">
+        <v>649</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3032,22 +3247,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1120</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1490</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1420</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1889</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3055,22 +3270,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="7">
-        <v>515</v>
-      </c>
-      <c r="E28" s="7">
-        <v>572</v>
+        <v>190</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1466</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2038</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3078,22 +3293,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="8">
+        <v>854</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1179</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="7">
-        <v>1183</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1349</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3101,22 +3316,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1316</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1842</v>
+        <v>163</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1291</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1756</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3124,22 +3339,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1405</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1911</v>
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1196</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1674</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3147,22 +3362,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1018</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1323</v>
+        <v>202</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1261</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1387</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3170,22 +3385,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="7">
-        <v>901</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1153</v>
+        <v>205</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1192</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1514</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3193,22 +3408,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="7">
-        <v>805</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1071</v>
+        <v>178</v>
+      </c>
+      <c r="D34" s="8">
+        <v>505</v>
+      </c>
+      <c r="E34" s="8">
+        <v>616</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3216,22 +3431,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1357</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1710</v>
+        <v>207</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1133</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1382</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3239,22 +3454,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1395</v>
+        <v>209</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1205</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1470</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3262,22 +3477,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1247</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1459</v>
+        <v>210</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1051</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1366</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3285,22 +3500,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1251</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1489</v>
+        <v>182</v>
+      </c>
+      <c r="D38" s="8">
+        <v>773</v>
+      </c>
+      <c r="E38" s="8">
+        <v>997</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3308,22 +3523,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="7">
-        <v>817</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1005</v>
+        <v>211</v>
+      </c>
+      <c r="D39" s="8">
+        <v>657</v>
+      </c>
+      <c r="E39" s="8">
+        <v>736</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3331,22 +3546,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="7">
-        <v>921</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1096</v>
+        <v>211</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1219</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1694</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3354,22 +3569,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="7">
-        <v>543</v>
-      </c>
-      <c r="E41" s="7">
-        <v>652</v>
+        <v>209</v>
+      </c>
+      <c r="D41" s="8">
+        <v>676</v>
+      </c>
+      <c r="E41" s="8">
+        <v>811</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3377,22 +3592,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1427</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1955</v>
+        <v>182</v>
+      </c>
+      <c r="D42" s="8">
+        <v>752</v>
+      </c>
+      <c r="E42" s="8">
+        <v>887</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3400,58 +3615,81 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="8">
+        <v>594</v>
+      </c>
+      <c r="E43" s="8">
+        <v>796</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="7">
-        <v>774</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1014</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>133</v>
+      <c r="C44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1469</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1910</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
